--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77141.82923760594</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77141.82923760594</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264945361.118384</v>
+        <v>46368086.50321066</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13187.36377369123</v>
+        <v>1062307.424912845</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25593.00468113571</v>
+        <v>1988712.795071269</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37997.60069860031</v>
+        <v>2915118.165229694</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50660.82775051114</v>
+        <v>3840595.016169076</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63324.05480242197</v>
+        <v>4766071.867108459</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75987.27795991338</v>
+        <v>5691548.718047841</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88650.50501182421</v>
+        <v>6617025.568987218</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101313.7281693156</v>
+        <v>7542502.419926594</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113976.9552212265</v>
+        <v>8467979.270865971</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126640.1822731373</v>
+        <v>9393456.121805349</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139303.4054306288</v>
+        <v>10318932.97274473</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151966.6324825396</v>
+        <v>11244409.82368411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164629.8595344505</v>
+        <v>12169886.6746235</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>177293.0865863613</v>
+        <v>13095363.52556289</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189956.3136382723</v>
+        <v>14020840.37650228</v>
       </c>
     </row>
   </sheetData>
